--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf16-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf16-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.09657300000000001</v>
+        <v>0.1628603333333333</v>
       </c>
       <c r="H2">
-        <v>0.289719</v>
+        <v>0.488581</v>
       </c>
       <c r="I2">
-        <v>0.1488791629603479</v>
+        <v>0.1212602171476209</v>
       </c>
       <c r="J2">
-        <v>0.2078467214814188</v>
+        <v>0.171492704432097</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.495057333333333</v>
+        <v>2.330840333333333</v>
       </c>
       <c r="N2">
-        <v>16.485172</v>
+        <v>6.992521</v>
       </c>
       <c r="O2">
-        <v>0.8161989011161211</v>
+        <v>0.6715345129768794</v>
       </c>
       <c r="P2">
-        <v>0.8403205285996808</v>
+        <v>0.7003397275969581</v>
       </c>
       <c r="Q2">
-        <v>0.5306741718519999</v>
+        <v>0.3796014336334444</v>
       </c>
       <c r="R2">
-        <v>4.776067546668</v>
+        <v>3.416412902701</v>
       </c>
       <c r="S2">
-        <v>0.1215150092073239</v>
+        <v>0.08143042086569827</v>
       </c>
       <c r="T2">
-        <v>0.1746578668629765</v>
+        <v>0.1201031539068405</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.09657300000000001</v>
+        <v>0.1628603333333333</v>
       </c>
       <c r="H3">
-        <v>0.289719</v>
+        <v>0.488581</v>
       </c>
       <c r="I3">
-        <v>0.1488791629603479</v>
+        <v>0.1212602171476209</v>
       </c>
       <c r="J3">
-        <v>0.2078467214814188</v>
+        <v>0.171492704432097</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +623,22 @@
         <v>1.972998</v>
       </c>
       <c r="O3">
-        <v>0.09768528951377062</v>
+        <v>0.1894790521235985</v>
       </c>
       <c r="P3">
-        <v>0.1005722428790014</v>
+        <v>0.1976066831789769</v>
       </c>
       <c r="Q3">
-        <v>0.063512778618</v>
+        <v>0.107107703982</v>
       </c>
       <c r="R3">
-        <v>0.571615007562</v>
+        <v>0.963969335838</v>
       </c>
       <c r="S3">
-        <v>0.01454330413634942</v>
+        <v>0.02297627100543294</v>
       </c>
       <c r="T3">
-        <v>0.02090361095443341</v>
+        <v>0.03388810451221932</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.09657300000000001</v>
+        <v>0.1628603333333333</v>
       </c>
       <c r="H4">
-        <v>0.289719</v>
+        <v>0.488581</v>
       </c>
       <c r="I4">
-        <v>0.1488791629603479</v>
+        <v>0.1212602171476209</v>
       </c>
       <c r="J4">
-        <v>0.2078467214814188</v>
+        <v>0.171492704432097</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5797745</v>
+        <v>0.42828</v>
       </c>
       <c r="N4">
-        <v>1.159549</v>
+        <v>0.85656</v>
       </c>
       <c r="O4">
-        <v>0.08611580937010824</v>
+        <v>0.123391035029171</v>
       </c>
       <c r="P4">
-        <v>0.0591072285213179</v>
+        <v>0.08578923067523865</v>
       </c>
       <c r="Q4">
-        <v>0.0559905627885</v>
+        <v>0.06974982355999999</v>
       </c>
       <c r="R4">
-        <v>0.335943376731</v>
+        <v>0.41849894136</v>
       </c>
       <c r="S4">
-        <v>0.0128208496166746</v>
+        <v>0.01496242370170698</v>
       </c>
       <c r="T4">
-        <v>0.01228524366400894</v>
+        <v>0.01471222717964569</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -711,55 +714,55 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.5520939999999999</v>
+        <v>0.1628603333333333</v>
       </c>
       <c r="H5">
-        <v>1.104188</v>
+        <v>0.488581</v>
       </c>
       <c r="I5">
-        <v>0.851120837039652</v>
+        <v>0.1212602171476209</v>
       </c>
       <c r="J5">
-        <v>0.7921532785185812</v>
+        <v>0.171492704432097</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>5.495057333333333</v>
+        <v>0.05413033333333334</v>
       </c>
       <c r="N5">
-        <v>16.485172</v>
+        <v>0.162391</v>
       </c>
       <c r="O5">
-        <v>0.8161989011161211</v>
+        <v>0.01559539987035126</v>
       </c>
       <c r="P5">
-        <v>0.8403205285996808</v>
+        <v>0.01626435854882633</v>
       </c>
       <c r="Q5">
-        <v>3.033788183389332</v>
+        <v>0.008815684130111112</v>
       </c>
       <c r="R5">
-        <v>18.20272910033599</v>
+        <v>0.079341157171</v>
       </c>
       <c r="S5">
-        <v>0.6946838919087972</v>
+        <v>0.001891101574782773</v>
       </c>
       <c r="T5">
-        <v>0.6656626617367043</v>
+        <v>0.002789218833391523</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,7 +776,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -782,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5520939999999999</v>
+        <v>1.1802045</v>
       </c>
       <c r="H6">
-        <v>1.104188</v>
+        <v>2.360409</v>
       </c>
       <c r="I6">
-        <v>0.851120837039652</v>
+        <v>0.878739782852379</v>
       </c>
       <c r="J6">
-        <v>0.7921532785185812</v>
+        <v>0.828507295567903</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.657666</v>
+        <v>2.330840333333333</v>
       </c>
       <c r="N6">
-        <v>1.972998</v>
+        <v>6.992521</v>
       </c>
       <c r="O6">
-        <v>0.09768528951377062</v>
+        <v>0.6715345129768794</v>
       </c>
       <c r="P6">
-        <v>0.1005722428790014</v>
+        <v>0.7003397275969581</v>
       </c>
       <c r="Q6">
-        <v>0.3630934526039999</v>
+        <v>2.7508682501815</v>
       </c>
       <c r="R6">
-        <v>2.178560715624</v>
+        <v>16.505209501089</v>
       </c>
       <c r="S6">
-        <v>0.08314198537742119</v>
+        <v>0.5901040921111811</v>
       </c>
       <c r="T6">
-        <v>0.07966863192456798</v>
+        <v>0.5802365736901176</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,7 +838,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -844,46 +847,170 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5520939999999999</v>
+        <v>1.1802045</v>
       </c>
       <c r="H7">
-        <v>1.104188</v>
+        <v>2.360409</v>
       </c>
       <c r="I7">
-        <v>0.851120837039652</v>
+        <v>0.878739782852379</v>
       </c>
       <c r="J7">
-        <v>0.7921532785185812</v>
+        <v>0.828507295567903</v>
       </c>
       <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.657666</v>
+      </c>
+      <c r="N7">
+        <v>1.972998</v>
+      </c>
+      <c r="O7">
+        <v>0.1894790521235985</v>
+      </c>
+      <c r="P7">
+        <v>0.1976066831789769</v>
+      </c>
+      <c r="Q7">
+        <v>0.7761803726969999</v>
+      </c>
+      <c r="R7">
+        <v>4.657082236181999</v>
+      </c>
+      <c r="S7">
+        <v>0.1665027811181655</v>
+      </c>
+      <c r="T7">
+        <v>0.1637185786667576</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
         <v>2</v>
       </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.5797745</v>
-      </c>
-      <c r="N7">
-        <v>1.159549</v>
-      </c>
-      <c r="O7">
-        <v>0.08611580937010824</v>
-      </c>
-      <c r="P7">
-        <v>0.0591072285213179</v>
-      </c>
-      <c r="Q7">
-        <v>0.3200900228029999</v>
-      </c>
-      <c r="R7">
-        <v>1.280360091212</v>
-      </c>
-      <c r="S7">
-        <v>0.07329495975343363</v>
-      </c>
-      <c r="T7">
-        <v>0.04682198485730896</v>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.1802045</v>
+      </c>
+      <c r="H8">
+        <v>2.360409</v>
+      </c>
+      <c r="I8">
+        <v>0.878739782852379</v>
+      </c>
+      <c r="J8">
+        <v>0.828507295567903</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.42828</v>
+      </c>
+      <c r="N8">
+        <v>0.85656</v>
+      </c>
+      <c r="O8">
+        <v>0.123391035029171</v>
+      </c>
+      <c r="P8">
+        <v>0.08578923067523865</v>
+      </c>
+      <c r="Q8">
+        <v>0.5054579832599999</v>
+      </c>
+      <c r="R8">
+        <v>2.02183193304</v>
+      </c>
+      <c r="S8">
+        <v>0.108428611327464</v>
+      </c>
+      <c r="T8">
+        <v>0.07107700349559297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.1802045</v>
+      </c>
+      <c r="H9">
+        <v>2.360409</v>
+      </c>
+      <c r="I9">
+        <v>0.878739782852379</v>
+      </c>
+      <c r="J9">
+        <v>0.828507295567903</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.05413033333333334</v>
+      </c>
+      <c r="N9">
+        <v>0.162391</v>
+      </c>
+      <c r="O9">
+        <v>0.01559539987035126</v>
+      </c>
+      <c r="P9">
+        <v>0.01626435854882633</v>
+      </c>
+      <c r="Q9">
+        <v>0.06388486298649999</v>
+      </c>
+      <c r="R9">
+        <v>0.383309177919</v>
+      </c>
+      <c r="S9">
+        <v>0.01370429829556848</v>
+      </c>
+      <c r="T9">
+        <v>0.0134751397154348</v>
       </c>
     </row>
   </sheetData>
